--- a/biology/Botanique/Tillandsia_abdita/Tillandsia_abdita.xlsx
+++ b/biology/Botanique/Tillandsia_abdita/Tillandsia_abdita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia abdita est une espèce de plantes de la famille des Bromeliaceae, endémique du Costa Rica. L'épithète abdita signifie « cachée » et est probablement une allusion aux fleurs un peu cachées entre les bractées de l'inflorescence, mais le protologue ne le précise pas explicitement.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe aucun synonyme connu.
 </t>
@@ -542,13 +556,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tillandsia abdita L.B.Sm., in Phytologia 8(1): 10, tab. 1 fig. 15-17 (1961)
-Diagnose originale[1]
+Diagnose originale
 « A T. brachycaulos Schlecht., cui affinis, foliorum vaginis haud distinctis, laminis latioribus, bracteis florigeris sepalisque lepidotis differt. »
 Type
-leg. F. Solis, n° 314, 1935-08 ; « Cerro de Escasú, Province of San José, Costa Rica » ; Holotypus Chicago Natural History Museum[1].
+leg. F. Solis, n° 314, 1935-08 ; « Cerro de Escasú, Province of San José, Costa Rica » ; Holotypus Chicago Natural History Museum.
 leg. F. Solis, n° 314, 1935-08 ; « Costa Rica. San Jose. On Cerro de Escasu. » ; Isotypus (fragment.) US National Herbarium (US 00089108)</t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia abdita est plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 </t>
@@ -610,8 +628,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique de province de San José[1] au Costa Rica[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de province de San José au Costa Rica.
 </t>
         </is>
       </c>
@@ -641,6 +664,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
